--- a/biology/Botanique/Cupaniopsis/Cupaniopsis.xlsx
+++ b/biology/Botanique/Cupaniopsis/Cupaniopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cupaniopsis est un genre de plantes à fleurs de la famille des Sapindaceae. Il compte 63 espèces originaires d'Australie, de Nouvelle-Guinée, de Nouvelle-Calédonie et des îles Fidji. En Australie ces plantes sont appelées tuckeroos. Cupaniopsis anacardioides originaire d'Australie s'est naturalisée à Hawaii et en Floride où elle est considérée comme une plante indésirable. Ces arbustes peuvent être parasités par Encarsia citrina (Craw 1891)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cupaniopsis est un genre de plantes à fleurs de la famille des Sapindaceae. Il compte 63 espèces originaires d'Australie, de Nouvelle-Guinée, de Nouvelle-Calédonie et des îles Fidji. En Australie ces plantes sont appelées tuckeroos. Cupaniopsis anacardioides originaire d'Australie s'est naturalisée à Hawaii et en Floride où elle est considérée comme une plante indésirable. Ces arbustes peuvent être parasités par Encarsia citrina (Craw 1891).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres ou arbustes, aux feuilles exstipulées, alternes, composées ; les folioles sont alternes ou opposées, entières. Les fleurs sont régulières ou irrégulières, en panicules axillaires et sub-terminales. Il y a 4 ou 5 sépales, libres ou connotés à la base, imbriqués, sur deux rangs. Les pétales sont au nombre de 4-5 ou absents, avec ou sans écailles. Le disque est annulaire, charnu, glabre. On compte 6–10 étamines, parfois moins, libres, généralement exsudées. L'ovaire est ovoïde ou obovoïde, à 2-4 localisés ; les ovules sont solitaires. Le fruit est une capsule à 2–4 lobes, les lobes connotés ou libres, parfois comprimés. Les graines sont sub-globuleuses à oblongues, arrondies[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres ou arbustes, aux feuilles exstipulées, alternes, composées ; les folioles sont alternes ou opposées, entières. Les fleurs sont régulières ou irrégulières, en panicules axillaires et sub-terminales. Il y a 4 ou 5 sépales, libres ou connotés à la base, imbriqués, sur deux rangs. Les pétales sont au nombre de 4-5 ou absents, avec ou sans écailles. Le disque est annulaire, charnu, glabre. On compte 6–10 étamines, parfois moins, libres, généralement exsudées. L'ovaire est ovoïde ou obovoïde, à 2-4 localisés ; les ovules sont solitaires. Le fruit est une capsule à 2–4 lobes, les lobes connotés ou libres, parfois comprimés. Les graines sont sub-globuleuses à oblongues, arrondies.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (10 mars 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (10 mars 2021) :
 Cupaniopsis acuticarpa Adema
 Cupaniopsis amoena A.C.Sm.
 Cupaniopsis anacardioides (A.Rich.) Radlk.
